--- a/xlsx/discounts.xlsx
+++ b/xlsx/discounts.xlsx
@@ -345,7 +345,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,7 +366,7 @@
         <v>245080534</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
